--- a/Documentation_Folder/EMR_Schema1.xlsx
+++ b/Documentation_Folder/EMR_Schema1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
   <si>
     <t>1. patient_info_tbl</t>
   </si>
@@ -69,12 +69,6 @@
     <t>education</t>
   </si>
   <si>
-    <t>3. file_tbl</t>
-  </si>
-  <si>
-    <t>file_id</t>
-  </si>
-  <si>
     <t>document_type</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>access_id</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>Suresh</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
   </si>
   <si>
     <t>prescription</t>
-  </si>
-  <si>
-    <t>On</t>
   </si>
   <si>
     <r>
@@ -193,9 +181,6 @@
     <t>faiting</t>
   </si>
   <si>
-    <t>file</t>
-  </si>
-  <si>
     <t>Pradip</t>
   </si>
   <si>
@@ -241,9 +226,6 @@
     <t>test report</t>
   </si>
   <si>
-    <t>OFF</t>
-  </si>
-  <si>
     <t>Upset Stomach</t>
   </si>
   <si>
@@ -254,6 +236,27 @@
   </si>
   <si>
     <t>Flat no.45 Shivaji nagar</t>
+  </si>
+  <si>
+    <t>3. document_tbl</t>
+  </si>
+  <si>
+    <t>document_id</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>tested before lunch</t>
+  </si>
+  <si>
+    <t>got prescribed after 3 days of symtoms</t>
+  </si>
+  <si>
+    <t>access_status</t>
   </si>
 </sst>
 </file>
@@ -500,11 +503,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A21:D23" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A21:F23" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="6">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
+    <tableColumn id="5" name="Column5"/>
     <tableColumn id="3" name="Column3"/>
+    <tableColumn id="6" name="Column6"/>
     <tableColumn id="4" name="Column4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -845,16 +850,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
-    <col min="3" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
     <col min="6" max="6" width="14.90625" customWidth="1"/>
     <col min="7" max="7" width="22.1796875" customWidth="1"/>
     <col min="8" max="8" width="14.81640625" customWidth="1"/>
@@ -906,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -914,13 +920,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6">
         <v>30655</v>
@@ -929,19 +935,19 @@
         <v>8625278181</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="L6" s="3"/>
     </row>
@@ -950,13 +956,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6">
         <v>28711</v>
@@ -965,19 +971,19 @@
         <v>9685466532</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1041,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1049,19 +1055,19 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="G15" s="3">
         <v>5</v>
@@ -1070,13 +1076,13 @@
         <v>98765432</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L15" s="3"/>
     </row>
@@ -1085,19 +1091,19 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G16" s="3">
         <v>10</v>
@@ -1106,65 +1112,83 @@
         <v>763527218</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6">
+        <v>44607.999988425923</v>
+      </c>
+      <c r="F22" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="3">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="6">
+        <v>44612</v>
+      </c>
+      <c r="F23" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>1</v>
@@ -1173,10 +1197,10 @@
         <v>13</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -1186,11 +1210,9 @@
       <c r="C29" s="3">
         <v>5</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -1200,27 +1222,25 @@
       <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>1</v>
@@ -1231,10 +1251,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D36" s="6">
         <v>44597</v>
@@ -1248,10 +1268,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D37" s="6">
         <v>44602</v>

--- a/Documentation_Folder/EMR_Schema1.xlsx
+++ b/Documentation_Folder/EMR_Schema1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>1. patient_info_tbl</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>event_type</t>
@@ -850,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,7 +935,7 @@
         <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>24</v>
@@ -956,10 +953,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>22</v>
@@ -971,19 +968,19 @@
         <v>9685466532</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -1091,19 +1088,19 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="G16" s="3">
         <v>10</v>
@@ -1112,23 +1109,23 @@
         <v>763527218</v>
       </c>
       <c r="I16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
@@ -1137,10 +1134,10 @@
         <v>40</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>1</v>
@@ -1154,7 +1151,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="6">
@@ -1169,10 +1166,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="6">
         <v>44612</v>
@@ -1197,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1234,13 +1231,13 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>1</v>
@@ -1251,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="6">
         <v>44597</v>
@@ -1268,10 +1265,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D37" s="6">
         <v>44602</v>
